--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -500,13 +500,17 @@
           <t>Fornybar Stallions</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>MiT Fotball</t>
@@ -623,13 +627,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>HSK</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -531,27 +531,31 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Hånd til Munn</t>
+          <t xml:space="preserve">Einar Perdomo </t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>98818821</v>
+        <v>91162311</v>
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TIHLDE Pythons</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Tihlde Pythons</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>
@@ -817,7 +821,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TIHLDE Pythons</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
@@ -1076,7 +1080,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TIHLDE Pythons</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
@@ -1510,7 +1514,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TIHLDE Pythons</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
@@ -1716,7 +1720,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TIHLDE Pythons</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1903,7 +1907,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TIHLDE Pythons</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
@@ -2080,7 +2084,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TIHLDE Pythons</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">
@@ -2366,7 +2370,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TIHLDE Pythons</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -730,13 +730,17 @@
           <t>HSK</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>SALT IF</t>
@@ -771,13 +775,17 @@
           <t>MiT Fotball</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Omega Løkka</t>
@@ -812,13 +820,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Tihlde Pythons</t>
@@ -853,13 +865,17 @@
           <t>Realkameratene FK</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Fornybar Stallions</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -590,13 +590,17 @@
           <t>SALT IF</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>FC BI United</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -1009,13 +1009,17 @@
           <t>MiT Fotball</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>
@@ -1050,13 +1054,17 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>FC BI United</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -968,13 +968,17 @@
           <t>Fornybar Stallions</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Pareto FK</t>
@@ -1099,13 +1103,17 @@
           <t>SALT IF</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Tihlde Pythons</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -1202,13 +1202,17 @@
           <t>HSK</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>FC BI United</t>
@@ -1243,13 +1247,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>MiT Fotball</t>
@@ -1282,13 +1290,17 @@
           <t>Realkameratene FK</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Omega Løkka</t>
@@ -1323,13 +1335,17 @@
           <t>SALT IF</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Fornybar Stallions</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -1516,13 +1516,17 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>HSK</t>
@@ -1557,13 +1561,17 @@
           <t>FC BI United</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>Tihlde Pythons</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -1434,13 +1434,17 @@
           <t>MiT Fotball</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>SALT IF</t>
@@ -1475,13 +1479,17 @@
           <t>Realkameratene FK</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>Pareto FK</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -1668,13 +1668,17 @@
           <t>Fornybar Stallions</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>FC BI United</t>
@@ -1709,13 +1713,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>Omega Løkka</t>
@@ -1750,13 +1758,17 @@
           <t>SALT IF</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -1803,13 +1803,17 @@
           <t>Tihlde Pythons</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>HSK</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -1900,13 +1900,17 @@
           <t>FC BI United</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>MiT Fotball</t>
@@ -1941,13 +1945,17 @@
           <t>HSK</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>Fornybar Stallions</t>
@@ -1982,13 +1990,17 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>6</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>Tihlde Pythons</t>
@@ -2023,13 +2035,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>SALT IF</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -2134,13 +2134,17 @@
           <t>FC BI United</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>
@@ -2175,13 +2179,17 @@
           <t>Fornybar Stallions</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Tihlde Pythons</t>
@@ -2214,13 +2222,17 @@
           <t>MiT Fotball</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>HSK</t>
@@ -2255,13 +2267,17 @@
           <t>SALT IF</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>Omega Løkka</t>

--- a/Scripts/Kamper/H25/C-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/C-Avdeling.xlsx
@@ -2366,13 +2366,17 @@
           <t>HSK</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>Realkameratene FK</t>
@@ -2407,13 +2411,17 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>Fornybar Stallions</t>
@@ -2448,13 +2456,17 @@
           <t>Pareto FK</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>FC BI United</t>
@@ -2489,13 +2501,17 @@
           <t>Tihlde Pythons</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>MiT Fotball</t>
